--- a/static/templates_base_interna/4 AUDITORIA AGIL/6 Riesgos.xlsx
+++ b/static/templates_base_interna/4 AUDITORIA AGIL/6 Riesgos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\2 ARCHIVOS AUDITORIA INTERNA\4 AUDITORIA AGIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_interna\4 AUDITORIA AGIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3D98DE-DA84-483C-9668-F665819D8D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="8250"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EMPRESA PRIVADA " sheetId="5" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="220">
   <si>
     <t>Medio</t>
   </si>
@@ -677,17 +678,23 @@
     <t>Reviso</t>
   </si>
   <si>
-    <t xml:space="preserve">                              Riesgos por Area Funcional Empresa Privada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  Entidad XXXXXXX</t>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Auditoría de Procesos</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>Riesgos por Area Funcional Empresa Privada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,13 +769,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -863,7 +863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -901,37 +901,30 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -967,7 +960,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1028,7 +1027,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1089,7 +1094,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CuadroTexto 3"/>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1163,7 +1174,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1224,7 +1241,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1285,7 +1308,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CuadroTexto 3"/>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1351,7 +1380,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1412,7 +1447,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1473,7 +1514,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CuadroTexto 3"/>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1539,7 +1586,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1600,7 +1653,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1661,7 +1720,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CuadroTexto 3"/>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1972,11 +2037,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:Y28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2055,12 +2120,12 @@
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="17"/>
+      <c r="D6" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="18" t="s">
@@ -2086,12 +2151,12 @@
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="18" t="s">
@@ -2114,15 +2179,12 @@
       <c r="Y7" s="17"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="17"/>
+      <c r="D8" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -2143,15 +2205,12 @@
       <c r="Y8" s="17"/>
     </row>
     <row r="9" spans="1:25" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="D9" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
@@ -2172,9 +2231,6 @@
       <c r="Y9" s="17"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -2199,7 +2255,7 @@
       <c r="Y10" s="17"/>
     </row>
     <row r="11" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="17"/>
@@ -2228,17 +2284,17 @@
       <c r="Y11" s="17"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
@@ -2257,17 +2313,17 @@
       <c r="Y12" s="17"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
@@ -2286,15 +2342,15 @@
       <c r="Y13" s="17"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
@@ -2313,31 +2369,31 @@
       <c r="Y14" s="17"/>
     </row>
     <row r="15" spans="1:25" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="23" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="17"/>
@@ -2358,31 +2414,31 @@
       <c r="Y15" s="17"/>
     </row>
     <row r="16" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="30" t="s">
+      <c r="F16" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="30" t="s">
+      <c r="H16" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="25" t="s">
         <v>77</v>
       </c>
       <c r="J16" s="17"/>
@@ -2403,31 +2459,31 @@
       <c r="Y16" s="17"/>
     </row>
     <row r="17" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="30" t="s">
+      <c r="F17" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="25" t="s">
         <v>83</v>
       </c>
       <c r="J17" s="17"/>
@@ -2448,31 +2504,31 @@
       <c r="Y17" s="17"/>
     </row>
     <row r="18" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="30" t="s">
+      <c r="F18" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="30" t="s">
+      <c r="H18" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="25" t="s">
         <v>89</v>
       </c>
       <c r="J18" s="17"/>
@@ -2493,31 +2549,31 @@
       <c r="Y18" s="17"/>
     </row>
     <row r="19" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="30" t="s">
+      <c r="H19" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="25" t="s">
         <v>92</v>
       </c>
       <c r="J19" s="17"/>
@@ -2538,31 +2594,31 @@
       <c r="Y19" s="17"/>
     </row>
     <row r="20" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" s="30" t="s">
+      <c r="H20" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="25" t="s">
         <v>96</v>
       </c>
       <c r="J20" s="17"/>
@@ -2583,31 +2639,31 @@
       <c r="Y20" s="17"/>
     </row>
     <row r="21" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="30" t="s">
+      <c r="H21" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="I21" s="25" t="s">
         <v>101</v>
       </c>
       <c r="J21" s="17"/>
@@ -2628,31 +2684,31 @@
       <c r="Y21" s="17"/>
     </row>
     <row r="22" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="30" t="s">
+      <c r="F22" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="I22" s="30" t="s">
+      <c r="H22" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="25" t="s">
         <v>105</v>
       </c>
       <c r="J22" s="17"/>
@@ -2673,31 +2729,31 @@
       <c r="Y22" s="17"/>
     </row>
     <row r="23" spans="1:25" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="30" t="s">
+      <c r="G23" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="I23" s="30" t="s">
+      <c r="H23" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="25" t="s">
         <v>71</v>
       </c>
       <c r="J23" s="17"/>
@@ -2776,7 +2832,7 @@
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="31"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
@@ -2803,7 +2859,7 @@
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="17"/>
@@ -2855,6 +2911,12 @@
       <c r="Y28" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2862,7 +2924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B6:L29"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
@@ -3240,7 +3302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B6:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3647,7 +3709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B6:L29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
